--- a/medicine/Enfance/Aidan_Chambers/Aidan_Chambers.xlsx
+++ b/medicine/Enfance/Aidan_Chambers/Aidan_Chambers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aidan Chambers (né le 27 décembre 1934) est un écrivain britannique, auteur de romans pour enfants et jeunes adultes. Il est lauréat du prestigieux prix international suédois, le Prix Hans Christian Andersen en 2002, dans la catégorie Écriture, pour l'ensemble de son œuvre.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie et œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né près de Chester-le-Street, dans le comté de Durham, en 1934, Chambers enseigne trois ans à Southend-on-Sea avant de rejoindre un monastère anglican en 1960, expérience qu'il relate dans son roman Now I Know.
 Ses premières pièces de théâtre, notamment Johnny Salter (1966) et The Chicken Run (1968), sont publiées alors qu'il enseigne à Stroud (Gloucestershire).
@@ -519,7 +533,7 @@
 Son œuvre comprend la séquence Danse, composée de six romans : Breaktime, Dance on My Grave (traduit en français sous le titre La Danse du coucou), Now I Know, The Toll Bridge, Postcards from No Man's Land et This is All: The Pillow Book of Cordelia Kenn.
 Avec son épouse Nancy, il fonde Thimble Press et le magazine Signal pour promouvoir la littérature pour enfants et jeunes adultes. Ils reçoivent en 1982 le Eleanor Farjeon Award pour services rendus à la littérature pour jeunes. De 2003 à 2006, il préside la School Library Association.
 Il est lauréat du prix international, le Prix Hans Christian Andersen en 2002, dans la catégorie Écriture, pour l'ensemble de son œuvre.
-En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Romans pour jeunes adultes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Snake River (1975)
 Breaktime (1978)
@@ -584,7 +600,9 @@
           <t>Romans pour enfants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Seal Secret (1980)
 Present Takers (1984)
@@ -617,7 +635,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1994 : Zilveren Griffel
 2003 : Prix Michael L. Printz
@@ -626,7 +646,7 @@
 2003 Honorary doctorate from the University of Umeå
 Compagnon de la Royal Society of Literature
 Eleanor Farjeon Award
-2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée[1]</t>
+2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée</t>
         </is>
       </c>
     </row>
